--- a/Assets/Levels/Level1/Rockets.xlsx
+++ b/Assets/Levels/Level1/Rockets.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\josip\source\repos\Space Retro Trouble\Assets\Levels\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\josip\source\repos\Space Retro Trouble\Assets\Levels\Level1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D04E59BE-4AD4-41BA-83C4-053F31EA6E01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A6DF2EE-37E1-46B2-99C7-17B21C55C5AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{1A928F05-C5D9-4851-9789-D0E1FAE17E15}"/>
   </bookViews>
@@ -82,8 +82,8 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Comma" xfId="1" builtinId="3"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normalno" xfId="0" builtinId="0"/>
+    <cellStyle name="Zarez" xfId="1" builtinId="3"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -99,7 +99,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema sustava Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -395,26 +395,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EB981B5-0823-44DD-9C5E-BDE7F520E408}">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:C10"/>
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1">
         <v>0</v>
       </c>
       <c r="B1" s="1">
         <v>128</v>
       </c>
-      <c r="C1" s="1">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2">
         <f t="shared" ref="A2:A7" si="0">+A1+62*3</f>
         <v>186</v>
@@ -422,11 +419,8 @@
       <c r="B2" s="1">
         <v>128</v>
       </c>
-      <c r="C2" s="1">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3">
         <f t="shared" si="0"/>
         <v>372</v>
@@ -434,11 +428,8 @@
       <c r="B3" s="1">
         <v>128</v>
       </c>
-      <c r="C3" s="1">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4">
         <f t="shared" si="0"/>
         <v>558</v>
@@ -446,11 +437,8 @@
       <c r="B4" s="1">
         <v>128</v>
       </c>
-      <c r="C4" s="1">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5">
         <f t="shared" si="0"/>
         <v>744</v>
@@ -458,11 +446,8 @@
       <c r="B5" s="1">
         <v>128</v>
       </c>
-      <c r="C5" s="1">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6">
         <f t="shared" si="0"/>
         <v>930</v>
@@ -470,11 +455,8 @@
       <c r="B6" s="1">
         <v>128</v>
       </c>
-      <c r="C6" s="1">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7">
         <f t="shared" si="0"/>
         <v>1116</v>
@@ -482,22 +464,16 @@
       <c r="B7" s="1">
         <v>128</v>
       </c>
-      <c r="C7" s="1">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>1488</v>
       </c>
       <c r="B8" s="1">
         <v>128</v>
       </c>
-      <c r="C8" s="1">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9">
         <f>+A8+62*3</f>
         <v>1674</v>
@@ -505,20 +481,14 @@
       <c r="B9" s="1">
         <v>128</v>
       </c>
-      <c r="C9" s="1">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10">
         <f>+A9+62*3</f>
         <v>1860</v>
       </c>
       <c r="B10" s="1">
         <v>128</v>
-      </c>
-      <c r="C10" s="1">
-        <v>200</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Levels/Level1/Rockets.xlsx
+++ b/Assets/Levels/Level1/Rockets.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\josip\source\repos\Space Retro Trouble\Assets\Levels\Level1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A6DF2EE-37E1-46B2-99C7-17B21C55C5AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{27D7DC60-9579-4212-ABA0-C87CDEA5C1A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{1A928F05-C5D9-4851-9789-D0E1FAE17E15}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{9CE52CA1-5FC0-483D-B550-6F17840A7620}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="List1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,18 +35,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-  </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="238"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -73,17 +62,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="1">
     <cellStyle name="Normalno" xfId="0" builtinId="0"/>
-    <cellStyle name="Zarez" xfId="1" builtinId="3"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -394,101 +380,85 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EB981B5-0823-44DD-9C5E-BDE7F520E408}">
-  <dimension ref="A1:B10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2890CA20-22E6-438C-AE2A-D73CF5E2567D}">
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1">
-        <v>128</v>
+        <v>1</v>
+      </c>
+      <c r="B1">
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2">
-        <f t="shared" ref="A2:A7" si="0">+A1+62*3</f>
-        <v>186</v>
-      </c>
-      <c r="B2" s="1">
-        <v>128</v>
+        <v>3</v>
+      </c>
+      <c r="B2">
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3">
-        <f t="shared" si="0"/>
-        <v>372</v>
-      </c>
-      <c r="B3" s="1">
-        <v>128</v>
+        <v>7</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4">
-        <f t="shared" si="0"/>
-        <v>558</v>
-      </c>
-      <c r="B4" s="1">
-        <v>128</v>
+        <v>13</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5">
-        <f t="shared" si="0"/>
-        <v>744</v>
-      </c>
-      <c r="B5" s="1">
-        <v>128</v>
+        <v>17</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6">
-        <f t="shared" si="0"/>
-        <v>930</v>
-      </c>
-      <c r="B6" s="1">
-        <v>128</v>
+        <v>22</v>
+      </c>
+      <c r="B6">
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7">
-        <f t="shared" si="0"/>
-        <v>1116</v>
-      </c>
-      <c r="B7" s="1">
-        <v>128</v>
+        <v>28</v>
+      </c>
+      <c r="B7">
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>1488</v>
-      </c>
-      <c r="B8" s="1">
-        <v>128</v>
+        <v>32</v>
+      </c>
+      <c r="B8">
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9">
-        <f>+A8+62*3</f>
-        <v>1674</v>
-      </c>
-      <c r="B9" s="1">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10">
-        <f>+A9+62*3</f>
-        <v>1860</v>
-      </c>
-      <c r="B10" s="1">
-        <v>128</v>
+        <v>43</v>
+      </c>
+      <c r="B9">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
